--- a/data/Eksklusion_lande/PenSam_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/PenSam_eksklusionsliste_lande_isin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="82">
   <si>
     <t>Land</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Ej rated</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>United States Virgin Islands</t>
@@ -660,16 +663,16 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -682,17 +685,20 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -709,16 +715,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -732,16 +738,16 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -755,16 +761,16 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -781,16 +787,16 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -804,16 +810,16 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -830,16 +836,16 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -856,16 +862,16 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -879,19 +885,19 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -905,16 +911,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -928,19 +934,19 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -954,16 +960,16 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -980,16 +986,16 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1006,16 +1012,16 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1032,16 +1038,16 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1058,16 +1064,16 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1084,16 +1090,16 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1107,19 +1113,19 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1136,16 +1142,16 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1159,19 +1165,19 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1185,19 +1191,19 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1211,16 +1217,16 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1237,16 +1243,16 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1263,16 +1269,16 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1286,19 +1292,19 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1315,16 +1321,16 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1341,16 +1347,16 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1364,19 +1370,19 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1393,16 +1399,16 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1416,16 +1422,16 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1439,16 +1445,16 @@
         <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1465,16 +1471,16 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1491,16 +1497,16 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1514,19 +1520,19 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1540,19 +1546,19 @@
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1566,19 +1572,19 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1592,16 +1598,16 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1618,16 +1624,16 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1641,16 +1647,16 @@
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1667,16 +1673,16 @@
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1693,16 +1699,16 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
